--- a/ope.ed.gov/2011/hate-crimes-on-campus-virginia-colleges-and-universities-crime-2011.xlsx
+++ b/ope.ed.gov/2011/hate-crimes-on-campus-virginia-colleges-and-universities-crime-2011.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Hate Crimes - On campus</t>
+    <t>Survey Year</t>
   </si>
   <si>
-    <t>Survey year</t>
+    <t>UnitID</t>
   </si>
   <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,88 +31,88 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Race</t>
+    <t>Murder/Non-Negligent Manslaughter - Race</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Religion</t>
+    <t>Murder/Non-Negligent Manslaughter - Religion</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Sexual orientation</t>
+    <t>Murder/Non-Negligent Manslaughter - Sexual Orientation</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Gender</t>
+    <t>Murder/Non-Negligent Manslaughter - Gender</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Disability</t>
+    <t>Murder/Non-Negligent Manslaughter - Disability</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Ethnicity/National origin</t>
+    <t>Murder/Non-Negligent Manslaughter - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Negligent manslaughter</t>
+    <t>Negligent Manslaughter</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Race</t>
+    <t>Negligent Manslaughter - Race</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Religion</t>
+    <t>Negligent Manslaughter - Religion</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Sexual orientation</t>
+    <t>Negligent Manslaughter - Sexual Orientation</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Gender</t>
+    <t>Negligent Manslaughter - Gender</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Disability</t>
+    <t>Negligent Manslaughter - Disability</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Ethnicity/National origin</t>
+    <t>Negligent Manslaughter - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible</t>
+    <t>Sex Offenses - Forcible</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Race</t>
+    <t>Sex Offenses - Forcible - Race</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Religion</t>
+    <t>Sex Offenses - Forcible - Religion</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Sexual orientation</t>
+    <t>Sex Offenses - Forcible - Sexual Orientation</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Gender</t>
+    <t>Sex Offenses - Forcible - Gender</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Disability</t>
+    <t>Sex Offenses - Forcible - Disability</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Ethnicity/National origin</t>
+    <t>Sex Offenses - Forcible - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible -Race</t>
+    <t>Sex Offenses - Non-Forcible -Race</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible - Religion</t>
+    <t>Sex Offenses - Non-Forcible - Religion</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible - Sexual orientation</t>
+    <t>Sex Offenses - Non-Forcible - Sexual Orientation</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible - Gender</t>
+    <t>Sex Offenses - Non-Forcible - Gender</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible - Disability</t>
+    <t>Sex Offenses - Non-Forcible - Disability</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible - Ethnicity/National origin</t>
+    <t>Sex Offenses - Non-Forcible - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Robbery</t>
@@ -127,7 +124,7 @@
     <t>Robbery - Religion</t>
   </si>
   <si>
-    <t>Robbery - Sexual orientation</t>
+    <t>Robbery - Sexual Orientation</t>
   </si>
   <si>
     <t>Robbery - Gender</t>
@@ -136,28 +133,28 @@
     <t>Robbery - Disability</t>
   </si>
   <si>
-    <t>Robbery - Ethnicity/National origin</t>
+    <t>Robbery - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
-    <t>Aggravated assault - Race</t>
+    <t>Aggravated Assault - Race</t>
   </si>
   <si>
-    <t>Aggravated assault - Religion</t>
+    <t>Aggravated Assault - Religion</t>
   </si>
   <si>
-    <t>Aggravated assault - Sexual orientation</t>
+    <t>Aggravated Assault - Sexual Orientation</t>
   </si>
   <si>
-    <t>Aggravated assault - Gender</t>
+    <t>Aggravated Assault - Gender</t>
   </si>
   <si>
-    <t>Aggravated assault - Disability</t>
+    <t>Aggravated Assault - Disability</t>
   </si>
   <si>
-    <t>Aggravated assault - Ethnicity/National origin</t>
+    <t>Aggravated Assault - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Burglary</t>
@@ -169,7 +166,7 @@
     <t>Burglary - Religion</t>
   </si>
   <si>
-    <t>Burglary - Sexual orientation</t>
+    <t>Burglary - Sexual Orientation</t>
   </si>
   <si>
     <t>Burglary - Gender</t>
@@ -178,28 +175,28 @@
     <t>Burglary - Disability</t>
   </si>
   <si>
-    <t>Burglary - Ethnicity/National origin</t>
+    <t>Burglary - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Race</t>
+    <t>Motor Vehicle Theft - Race</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Religion</t>
+    <t>Motor Vehicle Theft - Religion</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Sexual orientation</t>
+    <t>Motor Vehicle Theft - Sexual Orientation</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Gender</t>
+    <t>Motor Vehicle Theft - Gender</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Disability</t>
+    <t>Motor Vehicle Theft - Disability</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Ethnicity/National origin</t>
+    <t>Motor Vehicle Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Arson</t>
@@ -211,7 +208,7 @@
     <t>Arson - Religion</t>
   </si>
   <si>
-    <t>Arson - Sexual orientation</t>
+    <t>Arson - Sexual Orientation</t>
   </si>
   <si>
     <t>Arson - Gender</t>
@@ -220,49 +217,49 @@
     <t>Arson - Disability</t>
   </si>
   <si>
-    <t>Arson - Ethnicity/National origin</t>
+    <t>Arson - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Simple assault</t>
+    <t>Simple Assault</t>
   </si>
   <si>
-    <t>Simple assault - Race</t>
+    <t>Simple Assault - Race</t>
   </si>
   <si>
-    <t>Simple assault - Religion</t>
+    <t>Simple Assault - Religion</t>
   </si>
   <si>
-    <t>Simple assault - Sexual orientation</t>
+    <t>Simple Assault - Sexual Orientation</t>
   </si>
   <si>
-    <t>Simple assault - Gender</t>
+    <t>Simple Assault - Gender</t>
   </si>
   <si>
-    <t>Simple assault - Disability</t>
+    <t>Simple Assault - Disability</t>
   </si>
   <si>
-    <t>Simple assault - Ethnicity/National origin</t>
+    <t>Simple Assault - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Larceny-theft</t>
+    <t>Larceny-Theft</t>
   </si>
   <si>
-    <t>Larceny-theft - Race</t>
+    <t>Larceny-Theft - Race</t>
   </si>
   <si>
-    <t>Larceny-theft - Religion</t>
+    <t>Larceny-Theft - Religion</t>
   </si>
   <si>
-    <t>Larceny-theft - Sexual orientation</t>
+    <t>Larceny-Theft - Sexual Orientation</t>
   </si>
   <si>
-    <t>Larceny-theft - Gender</t>
+    <t>Larceny-Theft - Gender</t>
   </si>
   <si>
-    <t>Larceny-theft - Disability</t>
+    <t>Larceny-Theft - Disability</t>
   </si>
   <si>
-    <t>Larceny-theft - Ethnicity/National origin</t>
+    <t>Larceny-Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Intimidation</t>
@@ -274,7 +271,7 @@
     <t>Intimidation - Religion</t>
   </si>
   <si>
-    <t>Intimidation - Sexual orientation</t>
+    <t>Intimidation - Sexual Orientation</t>
   </si>
   <si>
     <t>Intimidation - Gender</t>
@@ -283,28 +280,28 @@
     <t>Intimidation - Disability</t>
   </si>
   <si>
-    <t>Intimidation - Ethnicity/National origin</t>
+    <t>Intimidation - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property</t>
+    <t>Destruction/Damage/Vandalism of Property</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Race</t>
+    <t>Destruction/Damage/Vandalism of Property - Race</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Religion</t>
+    <t>Destruction/Damage/Vandalism of Property - Religion</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Sexual orientation</t>
+    <t>Destruction/Damage/Vandalism of Property - Sexual Orientation</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Gender</t>
+    <t>Destruction/Damage/Vandalism of Property - Gender</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Disability</t>
+    <t>Destruction/Damage/Vandalism of Property - Disability</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Ethnicity/National origin</t>
+    <t>Destruction/Damage/Vandalism of Property - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Advanced Technology Institute</t>
@@ -1915,298 +1912,568 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
+      <c t="s" s="1" r="P1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="Q1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="R1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="S1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="T1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="U1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="V1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="W1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="X1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="Y1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="Z1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="AA1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="AB1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="AC1">
+        <v>28</v>
+      </c>
+      <c t="s" s="1" r="AD1">
+        <v>29</v>
+      </c>
+      <c t="s" s="1" r="AE1">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="AF1">
+        <v>31</v>
+      </c>
+      <c t="s" s="1" r="AG1">
+        <v>32</v>
+      </c>
+      <c t="s" s="1" r="AH1">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="AI1">
+        <v>34</v>
+      </c>
+      <c t="s" s="1" r="AJ1">
+        <v>35</v>
+      </c>
+      <c t="s" s="1" r="AK1">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="AL1">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="AM1">
+        <v>38</v>
+      </c>
+      <c t="s" s="1" r="AN1">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="AO1">
+        <v>40</v>
+      </c>
+      <c t="s" s="1" r="AP1">
+        <v>41</v>
+      </c>
+      <c t="s" s="1" r="AQ1">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="AR1">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="AS1">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="AT1">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="AU1">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="AV1">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="AW1">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="AX1">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="AY1">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="AZ1">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="BA1">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="BB1">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="BC1">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="BD1">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="BE1">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="BF1">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="BG1">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="BH1">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="BI1">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="BJ1">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="BK1">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="BL1">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="BM1">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="BN1">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="BO1">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="BP1">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="BQ1">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="BR1">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="BS1">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="BT1">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="BU1">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="BV1">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="BW1">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="BX1">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="BY1">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="BZ1">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="CA1">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="CB1">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="CC1">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="CD1">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="CE1">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="CF1">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="CG1">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="CH1">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="CI1">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="CJ1">
+        <v>87</v>
+      </c>
+      <c t="s" s="1" r="CK1">
+        <v>88</v>
+      </c>
+      <c t="s" s="1" r="CL1">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="CM1">
+        <v>90</v>
+      </c>
+      <c t="s" s="1" r="CN1">
+        <v>91</v>
+      </c>
+      <c t="s" s="1" r="CO1">
+        <v>92</v>
+      </c>
+      <c t="s" s="1" r="CP1">
+        <v>93</v>
+      </c>
+      <c t="s" s="1" r="CQ1">
+        <v>94</v>
+      </c>
+      <c t="s" s="1" r="CR1">
+        <v>95</v>
+      </c>
+      <c t="s" s="1" r="CS1">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2011.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
-      </c>
-      <c t="s" s="1" r="P2">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="Q2">
-        <v>17</v>
-      </c>
-      <c t="s" s="1" r="R2">
-        <v>18</v>
-      </c>
-      <c t="s" s="1" r="S2">
-        <v>19</v>
-      </c>
-      <c t="s" s="1" r="T2">
-        <v>20</v>
-      </c>
-      <c t="s" s="1" r="U2">
-        <v>21</v>
-      </c>
-      <c t="s" s="1" r="V2">
-        <v>22</v>
-      </c>
-      <c t="s" s="1" r="W2">
-        <v>23</v>
-      </c>
-      <c t="s" s="1" r="X2">
-        <v>24</v>
-      </c>
-      <c t="s" s="1" r="Y2">
-        <v>25</v>
-      </c>
-      <c t="s" s="1" r="Z2">
-        <v>26</v>
-      </c>
-      <c t="s" s="1" r="AA2">
-        <v>27</v>
-      </c>
-      <c t="s" s="1" r="AB2">
-        <v>28</v>
-      </c>
-      <c t="s" s="1" r="AC2">
-        <v>29</v>
-      </c>
-      <c t="s" s="1" r="AD2">
-        <v>30</v>
-      </c>
-      <c t="s" s="1" r="AE2">
-        <v>31</v>
-      </c>
-      <c t="s" s="1" r="AF2">
-        <v>32</v>
-      </c>
-      <c t="s" s="1" r="AG2">
-        <v>33</v>
-      </c>
-      <c t="s" s="1" r="AH2">
-        <v>34</v>
-      </c>
-      <c t="s" s="1" r="AI2">
-        <v>35</v>
-      </c>
-      <c t="s" s="1" r="AJ2">
-        <v>36</v>
-      </c>
-      <c t="s" s="1" r="AK2">
-        <v>37</v>
-      </c>
-      <c t="s" s="1" r="AL2">
-        <v>38</v>
-      </c>
-      <c t="s" s="1" r="AM2">
-        <v>39</v>
-      </c>
-      <c t="s" s="1" r="AN2">
-        <v>40</v>
-      </c>
-      <c t="s" s="1" r="AO2">
-        <v>41</v>
-      </c>
-      <c t="s" s="1" r="AP2">
-        <v>42</v>
-      </c>
-      <c t="s" s="1" r="AQ2">
-        <v>43</v>
-      </c>
-      <c t="s" s="1" r="AR2">
-        <v>44</v>
-      </c>
-      <c t="s" s="1" r="AS2">
-        <v>45</v>
-      </c>
-      <c t="s" s="1" r="AT2">
-        <v>46</v>
-      </c>
-      <c t="s" s="1" r="AU2">
-        <v>47</v>
-      </c>
-      <c t="s" s="1" r="AV2">
-        <v>48</v>
-      </c>
-      <c t="s" s="1" r="AW2">
-        <v>49</v>
-      </c>
-      <c t="s" s="1" r="AX2">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="AY2">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="AZ2">
-        <v>52</v>
-      </c>
-      <c t="s" s="1" r="BA2">
-        <v>53</v>
-      </c>
-      <c t="s" s="1" r="BB2">
-        <v>54</v>
-      </c>
-      <c t="s" s="1" r="BC2">
-        <v>55</v>
-      </c>
-      <c t="s" s="1" r="BD2">
-        <v>56</v>
-      </c>
-      <c t="s" s="1" r="BE2">
-        <v>57</v>
-      </c>
-      <c t="s" s="1" r="BF2">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="BG2">
-        <v>59</v>
-      </c>
-      <c t="s" s="1" r="BH2">
-        <v>60</v>
-      </c>
-      <c t="s" s="1" r="BI2">
-        <v>61</v>
-      </c>
-      <c t="s" s="1" r="BJ2">
-        <v>62</v>
-      </c>
-      <c t="s" s="1" r="BK2">
-        <v>63</v>
-      </c>
-      <c t="s" s="1" r="BL2">
-        <v>64</v>
-      </c>
-      <c t="s" s="1" r="BM2">
-        <v>65</v>
-      </c>
-      <c t="s" s="1" r="BN2">
-        <v>66</v>
-      </c>
-      <c t="s" s="1" r="BO2">
-        <v>67</v>
-      </c>
-      <c t="s" s="1" r="BP2">
-        <v>68</v>
-      </c>
-      <c t="s" s="1" r="BQ2">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="BR2">
-        <v>70</v>
-      </c>
-      <c t="s" s="1" r="BS2">
-        <v>71</v>
-      </c>
-      <c t="s" s="1" r="BT2">
-        <v>72</v>
-      </c>
-      <c t="s" s="1" r="BU2">
-        <v>73</v>
-      </c>
-      <c t="s" s="1" r="BV2">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="BW2">
-        <v>75</v>
-      </c>
-      <c t="s" s="1" r="BX2">
-        <v>76</v>
-      </c>
-      <c t="s" s="1" r="BY2">
-        <v>77</v>
-      </c>
-      <c t="s" s="1" r="BZ2">
-        <v>78</v>
-      </c>
-      <c t="s" s="1" r="CA2">
-        <v>79</v>
-      </c>
-      <c t="s" s="1" r="CB2">
-        <v>80</v>
-      </c>
-      <c t="s" s="1" r="CC2">
-        <v>81</v>
-      </c>
-      <c t="s" s="1" r="CD2">
-        <v>82</v>
-      </c>
-      <c t="s" s="1" r="CE2">
-        <v>83</v>
-      </c>
-      <c t="s" s="1" r="CF2">
-        <v>84</v>
-      </c>
-      <c t="s" s="1" r="CG2">
-        <v>85</v>
-      </c>
-      <c t="s" s="1" r="CH2">
-        <v>86</v>
-      </c>
-      <c t="s" s="1" r="CI2">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="CJ2">
-        <v>88</v>
-      </c>
-      <c t="s" s="1" r="CK2">
-        <v>89</v>
-      </c>
-      <c t="s" s="1" r="CL2">
-        <v>90</v>
-      </c>
-      <c t="s" s="1" r="CM2">
-        <v>91</v>
-      </c>
-      <c t="s" s="1" r="CN2">
-        <v>92</v>
-      </c>
-      <c t="s" s="1" r="CO2">
-        <v>93</v>
-      </c>
-      <c t="s" s="1" r="CP2">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="CQ2">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="CR2">
-        <v>96</v>
-      </c>
-      <c t="s" s="1" r="CS2">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c s="1" r="F2">
+        <v>841.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="U2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="V2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="W2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="X2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Y2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Z2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AS2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AT2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AU2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AV2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AX2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AY2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AZ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BS2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BT2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BU2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BV2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BX2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BY2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BZ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CS2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -2217,13 +2484,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F3">
         <v>841.0</v>
@@ -2489,19 +2756,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B4">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F4">
-        <v>841.0</v>
+        <v>3640.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -2767,13 +3034,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F5">
         <v>3640.0</v>
@@ -3042,13 +3309,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F6">
         <v>3640.0</v>
@@ -3317,13 +3584,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D7">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F7">
         <v>3640.0</v>
@@ -3592,13 +3859,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D8">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F8">
         <v>3640.0</v>
@@ -3867,13 +4134,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D9">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F9">
         <v>3640.0</v>
@@ -4142,13 +4409,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F10">
         <v>3640.0</v>
@@ -4417,13 +4684,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D11">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F11">
         <v>3640.0</v>
@@ -4692,13 +4959,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D12">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F12">
         <v>3640.0</v>
@@ -4964,19 +5231,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D13">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F13">
-        <v>3640.0</v>
+        <v>332.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -5239,19 +5506,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B14">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F14">
-        <v>332.0</v>
+        <v>1142.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -5514,19 +5781,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B15">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F15">
-        <v>1142.0</v>
+        <v>901.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -5789,19 +6056,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B16">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F16">
-        <v>901.0</v>
+        <v>1667.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -6067,13 +6334,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F17">
         <v>1667.0</v>
@@ -6342,13 +6609,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D18">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F18">
         <v>1667.0</v>
@@ -6617,13 +6884,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F19">
         <v>1667.0</v>
@@ -6889,19 +7156,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B20">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D20">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F20">
-        <v>1667.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -7164,19 +7431,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B21">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F21">
-        <v>18.0</v>
+        <v>391.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -7439,19 +7706,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B22">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F22">
-        <v>391.0</v>
+        <v>219.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -7714,19 +7981,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B23">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F23">
-        <v>219.0</v>
+        <v>110.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -7989,19 +8256,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B24">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F24">
-        <v>110.0</v>
+        <v>52.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -8264,19 +8531,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B25">
-        <v>231280.0</v>
+        <v>458113.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F25">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -8299,9 +8566,6 @@
       <c s="1" r="M25">
         <v>0.0</v>
       </c>
-      <c s="1" r="N25">
-        <v>0.0</v>
-      </c>
       <c s="1" r="U25">
         <v>0.0</v>
       </c>
@@ -8471,7 +8735,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BY25">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="BZ25">
         <v>0.0</v>
@@ -8489,7 +8753,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CE25">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="CF25">
         <v>0.0</v>
@@ -8539,19 +8803,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B26">
-        <v>458113.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F26">
-        <v>87.0</v>
+        <v>4836.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -8574,6 +8838,9 @@
       <c s="1" r="M26">
         <v>0.0</v>
       </c>
+      <c s="1" r="N26">
+        <v>0.0</v>
+      </c>
       <c s="1" r="U26">
         <v>0.0</v>
       </c>
@@ -8743,7 +9010,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BY26">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="BZ26">
         <v>0.0</v>
@@ -8761,7 +9028,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CE26">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CF26">
         <v>0.0</v>
@@ -8811,19 +9078,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B27">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F27">
-        <v>4836.0</v>
+        <v>763.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -9086,19 +9353,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F28">
-        <v>763.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -9361,19 +9628,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B29">
-        <v>233356.0</v>
+        <v>233480.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F29">
-        <v>245.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -9636,19 +9903,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233480.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F30">
-        <v>31.0</v>
+        <v>1648.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -9911,19 +10178,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231581.0</v>
+        <v>459107.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F31">
-        <v>1648.0</v>
+        <v>400.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -9944,9 +10211,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M31">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N31">
         <v>0.0</v>
       </c>
       <c s="1" r="U31">
@@ -10186,19 +10450,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B32">
-        <v>459107.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F32">
-        <v>400.0</v>
+        <v>1006.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -10219,6 +10483,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M32">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N32">
         <v>0.0</v>
       </c>
       <c s="1" r="U32">
@@ -10458,19 +10725,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B33">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F33">
-        <v>1006.0</v>
+        <v>863.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -10733,19 +11000,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F34">
-        <v>863.0</v>
+        <v>170.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -11008,19 +11275,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B35">
-        <v>441858.0</v>
+        <v>430306.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F35">
-        <v>170.0</v>
+        <v>55.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -11041,9 +11308,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M35">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N35">
         <v>0.0</v>
       </c>
       <c s="1" r="U35">
@@ -11283,19 +11547,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B36">
-        <v>430306.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F36">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -11316,6 +11580,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M36">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N36">
         <v>0.0</v>
       </c>
       <c s="1" r="U36">
@@ -11555,19 +11822,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B37">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F37">
-        <v>56.0</v>
+        <v>5461.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -11833,13 +12100,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D38">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F38">
         <v>5461.0</v>
@@ -12108,13 +12375,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D39">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F39">
         <v>5461.0</v>
@@ -12383,13 +12650,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D40">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F40">
         <v>5461.0</v>
@@ -12658,13 +12925,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D41">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F41">
         <v>5461.0</v>
@@ -12688,9 +12955,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M41">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N41">
         <v>0.0</v>
       </c>
       <c s="1" r="U41">
@@ -12930,19 +13194,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B42">
-        <v>231697.0</v>
+        <v>451592.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D42">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F42">
-        <v>5461.0</v>
+        <v>21.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -12963,6 +13227,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M42">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N42">
         <v>0.0</v>
       </c>
       <c s="1" r="U42">
@@ -13202,19 +13469,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B43">
-        <v>451592.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F43">
-        <v>21.0</v>
+        <v>213.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -13477,19 +13744,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B44">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F44">
-        <v>213.0</v>
+        <v>313.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -13752,19 +14019,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B45">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F45">
-        <v>313.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -14027,19 +14294,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B46">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F46">
-        <v>245.0</v>
+        <v>250.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -14302,19 +14569,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B47">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F47">
-        <v>250.0</v>
+        <v>131.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -14577,19 +14844,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B48">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F48">
-        <v>131.0</v>
+        <v>1605.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -14852,19 +15119,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B49">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F49">
-        <v>1605.0</v>
+        <v>174.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -15127,19 +15394,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B50">
-        <v>427894.0</v>
+        <v>460871.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F50">
-        <v>174.0</v>
+        <v>219.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -15160,9 +15427,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M50">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N50">
         <v>0.0</v>
       </c>
       <c s="1" r="U50">
@@ -15402,19 +15666,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B51">
-        <v>460871.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F51">
-        <v>219.0</v>
+        <v>4990.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -15435,6 +15699,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M51">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N51">
         <v>0.0</v>
       </c>
       <c s="1" r="U51">
@@ -15674,19 +15941,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B52">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F52">
-        <v>4990.0</v>
+        <v>8200.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -15952,13 +16219,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D53">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F53">
         <v>8200.0</v>
@@ -15982,9 +16249,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M53">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N53">
         <v>0.0</v>
       </c>
       <c s="1" r="U53">
@@ -16227,13 +16491,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D54">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F54">
         <v>8200.0</v>
@@ -16499,13 +16763,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D55">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F55">
         <v>8200.0</v>
@@ -16768,19 +17032,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B56">
-        <v>231624.0</v>
+        <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D56">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F56">
-        <v>8200.0</v>
+        <v>381.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -17040,19 +17304,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B57">
-        <v>455983.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F57">
-        <v>381.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -17073,6 +17337,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M57">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N57">
         <v>0.0</v>
       </c>
       <c s="1" r="U57">
@@ -17312,19 +17579,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B58">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F58">
-        <v>9.0</v>
+        <v>1538.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -17587,19 +17854,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B59">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F59">
-        <v>1538.0</v>
+        <v>4390.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -17862,19 +18129,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B60">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F60">
-        <v>4390.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -18137,19 +18404,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B61">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F61">
-        <v>101.0</v>
+        <v>1185.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -18415,13 +18682,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D62">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F62">
         <v>1185.0</v>
@@ -18690,13 +18957,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D63">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F63">
         <v>1185.0</v>
@@ -18720,9 +18987,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M63">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N63">
         <v>0.0</v>
       </c>
       <c s="1" r="U63">
@@ -18962,19 +19226,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B64">
-        <v>440536.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D64">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F64">
-        <v>1185.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -18995,6 +19259,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M64">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N64">
         <v>0.0</v>
       </c>
       <c s="1" r="U64">
@@ -19234,19 +19501,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B65">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F65">
-        <v>25.0</v>
+        <v>1521.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -19509,19 +19776,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B66">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D66">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F66">
-        <v>1521.0</v>
+        <v>1022.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -19784,19 +20051,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B67">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D67">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F67">
-        <v>1022.0</v>
+        <v>1008.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -20059,19 +20326,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B68">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D68">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F68">
-        <v>1008.0</v>
+        <v>10762.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -20337,13 +20604,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D69">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F69">
         <v>10762.0</v>
@@ -20612,13 +20879,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D70">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F70">
         <v>10762.0</v>
@@ -20887,13 +21154,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D71">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F71">
         <v>10762.0</v>
@@ -21162,13 +21429,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D72">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F72">
         <v>10762.0</v>
@@ -21437,13 +21704,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D73">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F73">
         <v>10762.0</v>
@@ -21712,13 +21979,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D74">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F74">
         <v>10762.0</v>
@@ -21987,13 +22254,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D75">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F75">
         <v>10762.0</v>
@@ -22262,13 +22529,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D76">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F76">
         <v>10762.0</v>
@@ -22537,13 +22804,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D77">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F77">
         <v>10762.0</v>
@@ -22812,13 +23079,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D78">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F78">
         <v>10762.0</v>
@@ -23087,13 +23354,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D79">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F79">
         <v>10762.0</v>
@@ -23117,9 +23384,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M79">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N79">
         <v>0.0</v>
       </c>
       <c s="1" r="U79">
@@ -23362,13 +23626,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D80">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F80">
         <v>10762.0</v>
@@ -23392,6 +23656,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M80">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N80">
         <v>0.0</v>
       </c>
       <c s="1" r="U80">
@@ -23634,13 +23901,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D81">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F81">
         <v>10762.0</v>
@@ -23909,13 +24176,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D82">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F82">
         <v>10762.0</v>
@@ -24181,19 +24448,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B83">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D83">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F83">
-        <v>10762.0</v>
+        <v>964.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -24456,19 +24723,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B84">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F84">
-        <v>964.0</v>
+        <v>982.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -24684,19 +24951,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF84">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="CG84">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CH84">
         <v>0.0</v>
       </c>
       <c s="1" r="CI84">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="CJ84">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="CK84">
         <v>0.0</v>
@@ -24731,19 +24998,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B85">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D85">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F85">
-        <v>982.0</v>
+        <v>125.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -24959,19 +25226,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF85">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CG85">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CH85">
         <v>0.0</v>
       </c>
       <c s="1" r="CI85">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CJ85">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CK85">
         <v>0.0</v>
@@ -25006,19 +25273,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B86">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D86">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F86">
-        <v>125.0</v>
+        <v>162.0</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -25281,19 +25548,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B87">
-        <v>450599.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D87">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F87">
-        <v>162.0</v>
+        <v>442.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -25314,9 +25581,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M87">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N87">
         <v>0.0</v>
       </c>
       <c s="1" r="U87">
@@ -25556,19 +25820,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B88">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F88">
-        <v>442.0</v>
+        <v>772.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -25589,6 +25853,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M88">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N88">
         <v>0.0</v>
       </c>
       <c s="1" r="U88">
@@ -25828,19 +26095,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B89">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F89">
-        <v>772.0</v>
+        <v>423.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -26103,19 +26370,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B90">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F90">
-        <v>423.0</v>
+        <v>420.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -26378,19 +26645,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B91">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F91">
-        <v>420.0</v>
+        <v>1512.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -26653,19 +26920,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B92">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F92">
-        <v>1512.0</v>
+        <v>442.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -26928,19 +27195,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B93">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F93">
-        <v>442.0</v>
+        <v>511.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -27203,19 +27470,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B94">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F94">
-        <v>511.0</v>
+        <v>33320.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -27478,19 +27745,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B95">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F95">
-        <v>33320.0</v>
+        <v>7779.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -27756,13 +28023,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D96">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F96">
         <v>7779.0</v>
@@ -28031,13 +28298,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D97">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F97">
         <v>7779.0</v>
@@ -28306,13 +28573,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D98">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F98">
         <v>7779.0</v>
@@ -28336,9 +28603,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M98">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N98">
         <v>0.0</v>
       </c>
       <c s="1" r="U98">
@@ -28578,19 +28842,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B99">
-        <v>232195.0</v>
+        <v>455390.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D99">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F99">
-        <v>7779.0</v>
+        <v>223.0</v>
       </c>
       <c s="1" r="G99">
         <v>0.0</v>
@@ -28850,19 +29114,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B100">
-        <v>455390.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D100">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F100">
-        <v>223.0</v>
+        <v>254.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -28883,6 +29147,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M100">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N100">
         <v>0.0</v>
       </c>
       <c s="1" r="U100">
@@ -29122,19 +29389,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B101">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F101">
-        <v>254.0</v>
+        <v>1057.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -29397,19 +29664,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B102">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F102">
-        <v>1057.0</v>
+        <v>5221.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
@@ -29675,13 +29942,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D103">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F103">
         <v>5221.0</v>
@@ -29947,19 +30214,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B104">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D104">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F104">
-        <v>5221.0</v>
+        <v>63.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
@@ -30222,19 +30489,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B105">
-        <v>431266.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D105">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F105">
-        <v>63.0</v>
+        <v>953.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
@@ -30497,19 +30764,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B106">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D106">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F106">
-        <v>953.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -30772,19 +31039,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B107">
-        <v>445869.0</v>
+        <v>458122.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D107">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F107">
-        <v>84.0</v>
+        <v>37.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -30805,9 +31072,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M107">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N107">
         <v>0.0</v>
       </c>
       <c s="1" r="U107">
@@ -31047,19 +31311,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B108">
-        <v>458122.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F108">
-        <v>37.0</v>
+        <v>697.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
@@ -31080,6 +31344,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M108">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N108">
         <v>0.0</v>
       </c>
       <c s="1" r="U108">
@@ -31319,19 +31586,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B109">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D109">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F109">
-        <v>697.0</v>
+        <v>1163.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -31594,19 +31861,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B110">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F110">
-        <v>1163.0</v>
+        <v>713.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -31869,19 +32136,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B111">
-        <v>437051.0</v>
+        <v>459602.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F111">
-        <v>713.0</v>
+        <v>189.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
@@ -31902,9 +32169,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M111">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N111">
         <v>0.0</v>
       </c>
       <c s="1" r="U111">
@@ -32144,19 +32408,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B112">
-        <v>459602.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D112">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F112">
-        <v>189.0</v>
+        <v>943.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -32177,6 +32441,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M112">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N112">
         <v>0.0</v>
       </c>
       <c s="1" r="U112">
@@ -32416,19 +32683,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B113">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F113">
-        <v>943.0</v>
+        <v>13367.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -32694,13 +32961,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D114">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F114">
         <v>13367.0</v>
@@ -32969,13 +33236,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D115">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F115">
         <v>13367.0</v>
@@ -33241,19 +33508,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B116">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D116">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F116">
-        <v>13367.0</v>
+        <v>19722.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -33519,13 +33786,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D117">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F117">
         <v>19722.0</v>
@@ -33794,13 +34061,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D118">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F118">
         <v>19722.0</v>
@@ -34069,13 +34336,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D119">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F119">
         <v>19722.0</v>
@@ -34341,19 +34608,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B120">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D120">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F120">
-        <v>19722.0</v>
+        <v>1065.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -34616,19 +34883,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B121">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F121">
-        <v>1065.0</v>
+        <v>10797.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -34894,13 +35161,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D122">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F122">
         <v>10797.0</v>
@@ -35169,13 +35436,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D123">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F123">
         <v>10797.0</v>
@@ -35444,13 +35711,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D124">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F124">
         <v>10797.0</v>
@@ -35716,19 +35983,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B125">
-        <v>232450.0</v>
+        <v>475246.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D125">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F125">
-        <v>10797.0</v>
+        <v>111.0</v>
       </c>
       <c s="1" r="G125">
         <v>0.0</v>
@@ -35749,9 +36016,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M125">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N125">
         <v>0.0</v>
       </c>
       <c s="1" r="U125">
@@ -35991,19 +36255,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B126">
-        <v>475246.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D126">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F126">
-        <v>111.0</v>
+        <v>64096.0</v>
       </c>
       <c s="1" r="G126">
         <v>0.0</v>
@@ -36024,6 +36288,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M126">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N126">
         <v>0.0</v>
       </c>
       <c s="1" r="U126">
@@ -36263,19 +36530,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B127">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D127">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F127">
-        <v>64096.0</v>
+        <v>4860.0</v>
       </c>
       <c s="1" r="G127">
         <v>0.0</v>
@@ -36538,19 +36805,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D128">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F128">
-        <v>4860.0</v>
+        <v>7270.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -36816,13 +37083,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D129">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F129">
         <v>7270.0</v>
@@ -37091,13 +37358,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D130">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F130">
         <v>7270.0</v>
@@ -37121,9 +37388,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M130">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N130">
         <v>0.0</v>
       </c>
       <c s="1" r="U130">
@@ -37363,19 +37627,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B131">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D131">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F131">
-        <v>7270.0</v>
+        <v>2828.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -37396,6 +37660,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M131">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N131">
         <v>0.0</v>
       </c>
       <c s="1" r="U131">
@@ -37635,19 +37902,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B132">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F132">
-        <v>2828.0</v>
+        <v>190.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -37910,19 +38177,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F133">
-        <v>190.0</v>
+        <v>1783.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -38185,19 +38452,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B134">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F134">
-        <v>1783.0</v>
+        <v>3633.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
@@ -38460,19 +38727,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B135">
-        <v>232706.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D135">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F135">
-        <v>3633.0</v>
+        <v>1868.0</v>
       </c>
       <c s="1" r="G135">
         <v>0.0</v>
@@ -38738,13 +39005,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D136">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F136">
         <v>1868.0</v>
@@ -39013,13 +39280,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D137">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F137">
         <v>1868.0</v>
@@ -39285,19 +39552,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B138">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D138">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F138">
-        <v>1868.0</v>
+        <v>460.0</v>
       </c>
       <c s="1" r="G138">
         <v>0.0</v>
@@ -39560,19 +39827,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B139">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D139">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F139">
-        <v>460.0</v>
+        <v>3219.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -39835,19 +40102,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F140">
-        <v>3219.0</v>
+        <v>5207.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -40110,19 +40377,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B141">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F141">
-        <v>5207.0</v>
+        <v>7091.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -40385,19 +40652,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B142">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F142">
-        <v>7091.0</v>
+        <v>50044.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -40663,13 +40930,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D143">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F143">
         <v>50044.0</v>
@@ -40938,13 +41205,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D144">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F144">
         <v>50044.0</v>
@@ -41213,13 +41480,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D145">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F145">
         <v>50044.0</v>
@@ -41488,13 +41755,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D146">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F146">
         <v>50044.0</v>
@@ -41763,13 +42030,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D147">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F147">
         <v>50044.0</v>
@@ -42035,19 +42302,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B148">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D148">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F148">
-        <v>50044.0</v>
+        <v>24753.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -42310,19 +42577,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B149">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F149">
-        <v>24753.0</v>
+        <v>3251.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -42585,19 +42852,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B150">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F150">
-        <v>3251.0</v>
+        <v>1661.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -42863,13 +43130,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D151">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F151">
         <v>1661.0</v>
@@ -43135,19 +43402,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B152">
-        <v>233037.0</v>
+        <v>449995.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D152">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F152">
-        <v>1661.0</v>
+        <v>232.0</v>
       </c>
       <c s="1" r="G152">
         <v>0.0</v>
@@ -43168,9 +43435,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M152">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N152">
         <v>0.0</v>
       </c>
       <c s="1" r="U152">
@@ -43410,19 +43674,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B153">
-        <v>449995.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F153">
-        <v>232.0</v>
+        <v>5684.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -43443,6 +43707,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M153">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N153">
         <v>0.0</v>
       </c>
       <c s="1" r="U153">
@@ -43682,19 +43949,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B154">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F154">
-        <v>5684.0</v>
+        <v>9370.0</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -43931,13 +44198,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM154">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN154">
         <v>0.0</v>
       </c>
       <c s="1" r="CO154">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CP154">
         <v>0.0</v>
@@ -43957,19 +44224,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B155">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F155">
-        <v>9370.0</v>
+        <v>576.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -44206,13 +44473,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM155">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN155">
         <v>0.0</v>
       </c>
       <c s="1" r="CO155">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CP155">
         <v>0.0</v>
@@ -44232,19 +44499,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F156">
-        <v>576.0</v>
+        <v>1257.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -44507,19 +44774,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B157">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F157">
-        <v>1257.0</v>
+        <v>3734.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -44785,13 +45052,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D158">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F158">
         <v>3734.0</v>
@@ -45057,19 +45324,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B159">
-        <v>233310.0</v>
+        <v>467605.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D159">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F159">
-        <v>3734.0</v>
+        <v>107.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -45090,9 +45357,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M159">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N159">
         <v>0.0</v>
       </c>
       <c s="1" r="U159">
@@ -45332,19 +45596,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B160">
-        <v>467605.0</v>
+        <v>467650.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F160">
-        <v>107.0</v>
+        <v>98.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -45604,19 +45868,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B161">
-        <v>467650.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F161">
-        <v>98.0</v>
+        <v>5568.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -45637,6 +45901,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M161">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N161">
         <v>0.0</v>
       </c>
       <c s="1" r="U161">
@@ -45876,19 +46143,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B162">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F162">
-        <v>5568.0</v>
+        <v>1629.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -46151,19 +46418,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B163">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F163">
-        <v>1629.0</v>
+        <v>392.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -46426,19 +46693,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B164">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F164">
-        <v>392.0</v>
+        <v>305.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -46701,19 +46968,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B165">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F165">
-        <v>305.0</v>
+        <v>2057.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -46976,19 +47243,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B166">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F166">
-        <v>2057.0</v>
+        <v>230.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -47251,19 +47518,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B167">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F167">
-        <v>230.0</v>
+        <v>410.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -47284,9 +47551,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M167">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N167">
         <v>0.0</v>
       </c>
       <c s="1" r="U167">
@@ -47526,19 +47790,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F168">
-        <v>410.0</v>
+        <v>829.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -47559,6 +47823,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M168">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N168">
         <v>0.0</v>
       </c>
       <c s="1" r="U168">
@@ -47798,19 +48065,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B169">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F169">
-        <v>829.0</v>
+        <v>337.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -48073,19 +48340,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B170">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F170">
-        <v>337.0</v>
+        <v>4052.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -48348,19 +48615,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B171">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F171">
-        <v>4052.0</v>
+        <v>264.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -48623,19 +48890,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B172">
-        <v>261931.0</v>
+        <v>459259.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F172">
-        <v>264.0</v>
+        <v>559.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -48656,9 +48923,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M172">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N172">
         <v>0.0</v>
       </c>
       <c s="1" r="U172">
@@ -48898,19 +49162,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B173">
-        <v>459259.0</v>
+        <v>459268.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F173">
-        <v>559.0</v>
+        <v>437.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -49170,19 +49434,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B174">
-        <v>459268.0</v>
+        <v>451608.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F174">
-        <v>437.0</v>
+        <v>71.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -49442,19 +49706,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B175">
-        <v>451608.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F175">
-        <v>71.0</v>
+        <v>803.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -49475,6 +49739,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M175">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N175">
         <v>0.0</v>
       </c>
       <c s="1" r="U175">
@@ -49714,19 +49981,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B176">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F176">
-        <v>803.0</v>
+        <v>123.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -49989,19 +50256,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B177">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D177">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F177">
-        <v>123.0</v>
+        <v>6461.0</v>
       </c>
       <c s="1" r="G177">
         <v>0.0</v>
@@ -50264,19 +50531,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F178">
-        <v>6461.0</v>
+        <v>3233.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -50539,19 +50806,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B179">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F179">
-        <v>3233.0</v>
+        <v>69.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
@@ -50814,19 +51081,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B180">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F180">
-        <v>69.0</v>
+        <v>59.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
@@ -51089,19 +51356,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B181">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D181">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F181">
-        <v>59.0</v>
+        <v>1823.0</v>
       </c>
       <c s="1" r="G181">
         <v>0.0</v>
@@ -51364,19 +51631,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B182">
-        <v>438498.0</v>
+        <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D182">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F182">
-        <v>1823.0</v>
+        <v>11202.0</v>
       </c>
       <c s="1" r="G182">
         <v>0.0</v>
@@ -51397,9 +51664,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M182">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N182">
         <v>0.0</v>
       </c>
       <c s="1" r="U182">
@@ -51642,13 +51906,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D183">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F183">
         <v>11202.0</v>
@@ -51914,13 +52178,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D184">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F184">
         <v>11202.0</v>
@@ -52186,13 +52450,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D185">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F185">
         <v>11202.0</v>
@@ -52458,13 +52722,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D186">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F186">
         <v>11202.0</v>
@@ -52730,13 +52994,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c s="1" r="D187">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c s="1" r="F187">
         <v>11202.0</v>
@@ -53002,13 +53266,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c s="1" r="D188">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c s="1" r="F188">
         <v>11202.0</v>
@@ -53274,13 +53538,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c s="1" r="D189">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c s="1" r="F189">
         <v>11202.0</v>
@@ -53546,13 +53810,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c s="1" r="D190">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c s="1" r="F190">
         <v>11202.0</v>
@@ -53818,13 +54082,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c s="1" r="D191">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c s="1" r="F191">
         <v>11202.0</v>
@@ -54090,13 +54354,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c s="1" r="D192">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c s="1" r="F192">
         <v>11202.0</v>
@@ -54359,19 +54623,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B193">
-        <v>233684.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c s="1" r="D193">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c s="1" r="F193">
-        <v>11202.0</v>
+        <v>59.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -54392,6 +54656,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M193">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N193">
         <v>0.0</v>
       </c>
       <c s="1" r="U193">
@@ -54631,19 +54898,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B194">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c s="1" r="F194">
-        <v>59.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
@@ -54664,9 +54931,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M194">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N194">
         <v>0.0</v>
       </c>
       <c s="1" r="U194">
@@ -54906,19 +55170,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B195">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c s="1" r="F195">
-        <v>14.0</v>
+        <v>760.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -54939,6 +55203,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M195">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N195">
         <v>0.0</v>
       </c>
       <c s="1" r="U195">
@@ -55178,19 +55445,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B196">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c s="1" r="F196">
-        <v>760.0</v>
+        <v>54.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
@@ -55453,19 +55720,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B197">
-        <v>233286.0</v>
+        <v>458496.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c s="1" r="D197">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c s="1" r="F197">
-        <v>54.0</v>
+        <v>427.0</v>
       </c>
       <c s="1" r="G197">
         <v>0.0</v>
@@ -55486,9 +55753,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M197">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N197">
         <v>0.0</v>
       </c>
       <c s="1" r="U197">
@@ -55728,19 +55992,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B198">
-        <v>458496.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c s="1" r="D198">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c s="1" r="F198">
-        <v>427.0</v>
+        <v>2094.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -55761,6 +56025,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M198">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N198">
         <v>0.0</v>
       </c>
       <c s="1" r="U198">
@@ -56000,19 +56267,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B199">
-        <v>440341.0</v>
+        <v>456010.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c s="1" r="F199">
-        <v>2094.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -56033,9 +56300,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M199">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N199">
         <v>0.0</v>
       </c>
       <c s="1" r="U199">
@@ -56275,19 +56539,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B200">
-        <v>456010.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c s="1" r="D200">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c s="1" r="F200">
-        <v>245.0</v>
+        <v>2067.0</v>
       </c>
       <c s="1" r="G200">
         <v>0.0</v>
@@ -56308,6 +56572,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M200">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N200">
         <v>0.0</v>
       </c>
       <c s="1" r="U200">
@@ -56547,19 +56814,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B201">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c s="1" r="D201">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c s="1" r="F201">
-        <v>2067.0</v>
+        <v>10999.0</v>
       </c>
       <c s="1" r="G201">
         <v>0.0</v>
@@ -56822,19 +57089,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B202">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c s="1" r="D202">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c s="1" r="F202">
-        <v>10999.0</v>
+        <v>32101.0</v>
       </c>
       <c s="1" r="G202">
         <v>0.0</v>
@@ -57100,13 +57367,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c s="1" r="D203">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c s="1" r="F203">
         <v>32101.0</v>
@@ -57375,13 +57642,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c s="1" r="D204">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c s="1" r="F204">
         <v>32101.0</v>
@@ -57650,13 +57917,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c s="1" r="D205">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c s="1" r="F205">
         <v>32101.0</v>
@@ -57896,13 +58163,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM205">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="CN205">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CO205">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CP205">
         <v>0.0</v>
@@ -57925,13 +58192,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c s="1" r="D206">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c s="1" r="F206">
         <v>32101.0</v>
@@ -58171,13 +58438,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM206">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN206">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CO206">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CP206">
         <v>0.0</v>
@@ -58200,13 +58467,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c s="1" r="D207">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c s="1" r="F207">
         <v>32101.0</v>
@@ -58230,9 +58497,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M207">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N207">
         <v>0.0</v>
       </c>
       <c s="1" r="U207">
@@ -58475,13 +58739,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c s="1" r="D208">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c s="1" r="F208">
         <v>32101.0</v>
@@ -58744,19 +59008,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B209">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c s="1" r="D209">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c s="1" r="F209">
-        <v>32101.0</v>
+        <v>230.0</v>
       </c>
       <c s="1" r="G209">
         <v>0.0</v>
@@ -58777,6 +59041,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M209">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N209">
         <v>0.0</v>
       </c>
       <c s="1" r="U209">
@@ -59016,19 +59283,16 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B210">
-        <v>232919.0</v>
+        <v>476568.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c s="1" r="D210">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>513</v>
-      </c>
-      <c s="1" r="F210">
-        <v>230.0</v>
+        <v>514</v>
       </c>
       <c s="1" r="G210">
         <v>0.0</v>
@@ -59049,9 +59313,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M210">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N210">
         <v>0.0</v>
       </c>
       <c s="1" r="U210">
@@ -59291,16 +59552,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B211">
-        <v>476568.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c s="1" r="D211">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>515</v>
+        <v>516</v>
+      </c>
+      <c s="1" r="F211">
+        <v>221.0</v>
       </c>
       <c s="1" r="G211">
         <v>0.0</v>
@@ -59321,6 +59585,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M211">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N211">
         <v>0.0</v>
       </c>
       <c s="1" r="U211">
@@ -59563,13 +59830,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c s="1" r="D212">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c s="1" r="F212">
         <v>221.0</v>
@@ -59835,19 +60102,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B213">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c s="1" r="D213">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c s="1" r="F213">
-        <v>221.0</v>
+        <v>5170.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -60113,13 +60380,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c s="1" r="D214">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c s="1" r="F214">
         <v>5170.0</v>
@@ -60143,9 +60410,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M214">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N214">
         <v>0.0</v>
       </c>
       <c s="1" r="U214">
@@ -60385,19 +60649,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B215">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c s="1" r="D215">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c s="1" r="F215">
-        <v>5170.0</v>
+        <v>889.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -60418,6 +60682,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M215">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N215">
         <v>0.0</v>
       </c>
       <c s="1" r="U215">
@@ -60657,19 +60924,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B216">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c s="1" r="F216">
-        <v>889.0</v>
+        <v>592.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -60932,19 +61199,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B217">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c s="1" r="F217">
-        <v>592.0</v>
+        <v>4348.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -61181,10 +61448,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM217">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN217">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CO217">
         <v>0.0</v>
@@ -61207,19 +61474,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B218">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c s="1" r="F218">
-        <v>4348.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
@@ -61456,10 +61723,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM218">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN218">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CO218">
         <v>0.0</v>
@@ -61482,19 +61749,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B219">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c s="1" r="F219">
-        <v>31.0</v>
+        <v>24297.0</v>
       </c>
       <c s="1" r="G219">
         <v>0.0</v>
@@ -61689,13 +61956,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BY219">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="BZ219">
         <v>0.0</v>
       </c>
       <c s="1" r="CA219">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CB219">
         <v>0.0</v>
@@ -61760,13 +62027,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c s="1" r="D220">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c s="1" r="F220">
         <v>24297.0</v>
@@ -61964,13 +62231,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BY220">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="BZ220">
         <v>0.0</v>
       </c>
       <c s="1" r="CA220">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CB220">
         <v>0.0</v>
@@ -62035,13 +62302,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c s="1" r="D221">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c s="1" r="F221">
         <v>24297.0</v>
@@ -62310,13 +62577,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c s="1" r="D222">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c s="1" r="F222">
         <v>24297.0</v>
@@ -62585,13 +62852,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c s="1" r="D223">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c s="1" r="F223">
         <v>24297.0</v>
@@ -62860,13 +63127,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c s="1" r="D224">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c s="1" r="F224">
         <v>24297.0</v>
@@ -63132,19 +63399,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B225">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c s="1" r="D225">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c s="1" r="F225">
-        <v>24297.0</v>
+        <v>63.0</v>
       </c>
       <c s="1" r="G225">
         <v>0.0</v>
@@ -63407,19 +63674,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B226">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C226">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c s="1" r="D226">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E226">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c s="1" r="F226">
-        <v>63.0</v>
+        <v>31627.0</v>
       </c>
       <c s="1" r="G226">
         <v>0.0</v>
@@ -63685,13 +63952,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C227">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c s="1" r="D227">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E227">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c s="1" r="F227">
         <v>31627.0</v>
@@ -63960,13 +64227,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C228">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c s="1" r="D228">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E228">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c s="1" r="F228">
         <v>31627.0</v>
@@ -63990,9 +64257,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M228">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N228">
         <v>0.0</v>
       </c>
       <c s="1" r="U228">
@@ -64232,19 +64496,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B229">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C229">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c s="1" r="D229">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E229">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c s="1" r="F229">
-        <v>31627.0</v>
+        <v>2823.0</v>
       </c>
       <c s="1" r="G229">
         <v>0.0</v>
@@ -64265,6 +64529,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M229">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N229">
         <v>0.0</v>
       </c>
       <c s="1" r="U229">
@@ -64504,19 +64771,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B230">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C230">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c s="1" r="D230">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E230">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c s="1" r="F230">
-        <v>2823.0</v>
+        <v>558.0</v>
       </c>
       <c s="1" r="G230">
         <v>0.0</v>
@@ -64779,19 +65046,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B231">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C231">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c s="1" r="D231">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E231">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c s="1" r="F231">
-        <v>558.0</v>
+        <v>1605.0</v>
       </c>
       <c s="1" r="G231">
         <v>0.0</v>
@@ -65007,7 +65274,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF231">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CG231">
         <v>0.0</v>
@@ -65019,7 +65286,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CJ231">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CK231">
         <v>0.0</v>
@@ -65054,19 +65321,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B232">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C232">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c s="1" r="D232">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E232">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c s="1" r="F232">
-        <v>1605.0</v>
+        <v>30936.0</v>
       </c>
       <c s="1" r="G232">
         <v>0.0</v>
@@ -65282,7 +65549,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF232">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CG232">
         <v>0.0</v>
@@ -65294,7 +65561,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CJ232">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CK232">
         <v>0.0</v>
@@ -65332,13 +65599,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C233">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c s="1" r="D233">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E233">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c s="1" r="F233">
         <v>30936.0</v>
@@ -65607,13 +65874,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C234">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c s="1" r="D234">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E234">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c s="1" r="F234">
         <v>30936.0</v>
@@ -65882,13 +66149,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C235">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c s="1" r="D235">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E235">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c s="1" r="F235">
         <v>30936.0</v>
@@ -66157,13 +66424,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C236">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c s="1" r="D236">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E236">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c s="1" r="F236">
         <v>30936.0</v>
@@ -66432,13 +66699,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C237">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c s="1" r="D237">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E237">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c s="1" r="F237">
         <v>30936.0</v>
@@ -66707,13 +66974,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C238">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c s="1" r="D238">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E238">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c s="1" r="F238">
         <v>30936.0</v>
@@ -66982,13 +67249,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C239">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c s="1" r="D239">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E239">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c s="1" r="F239">
         <v>30936.0</v>
@@ -67257,13 +67524,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C240">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c s="1" r="D240">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E240">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c s="1" r="F240">
         <v>30936.0</v>
@@ -67287,9 +67554,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M240">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N240">
         <v>0.0</v>
       </c>
       <c s="1" r="U240">
@@ -67532,13 +67796,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C241">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c s="1" r="D241">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E241">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c s="1" r="F241">
         <v>30936.0</v>
@@ -67804,13 +68068,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C242">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c s="1" r="D242">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E242">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c s="1" r="F242">
         <v>30936.0</v>
@@ -68076,13 +68340,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C243">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c s="1" r="D243">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E243">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c s="1" r="F243">
         <v>30936.0</v>
@@ -68345,19 +68609,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B244">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C244">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c s="1" r="D244">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E244">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c s="1" r="F244">
-        <v>30936.0</v>
+        <v>126.0</v>
       </c>
       <c s="1" r="G244">
         <v>0.0</v>
@@ -68378,6 +68642,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M244">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N244">
         <v>0.0</v>
       </c>
       <c s="1" r="U244">
@@ -68617,19 +68884,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B245">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C245">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c s="1" r="D245">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E245">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c s="1" r="F245">
-        <v>126.0</v>
+        <v>59.0</v>
       </c>
       <c s="1" r="G245">
         <v>0.0</v>
@@ -68892,19 +69159,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B246">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C246">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c s="1" r="D246">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E246">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c s="1" r="F246">
-        <v>59.0</v>
+        <v>5890.0</v>
       </c>
       <c s="1" r="G246">
         <v>0.0</v>
@@ -68994,10 +69261,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="AP246">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="AQ246">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="AR246">
         <v>0.0</v>
@@ -69167,19 +69434,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B247">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C247">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c s="1" r="D247">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E247">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c s="1" r="F247">
-        <v>5890.0</v>
+        <v>1678.0</v>
       </c>
       <c s="1" r="G247">
         <v>0.0</v>
@@ -69269,10 +69536,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="AP247">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="AQ247">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="AR247">
         <v>0.0</v>
@@ -69442,19 +69709,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B248">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C248">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c s="1" r="D248">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E248">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c s="1" r="F248">
-        <v>1678.0</v>
+        <v>597.0</v>
       </c>
       <c s="1" r="G248">
         <v>0.0</v>
@@ -69717,19 +69984,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B249">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C249">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c s="1" r="D249">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E249">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c s="1" r="F249">
-        <v>597.0</v>
+        <v>1404.0</v>
       </c>
       <c s="1" r="G249">
         <v>0.0</v>
@@ -69992,19 +70259,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B250">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C250">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c s="1" r="D250">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E250">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c s="1" r="F250">
-        <v>1404.0</v>
+        <v>8557.0</v>
       </c>
       <c s="1" r="G250">
         <v>0.0</v>
@@ -70267,19 +70534,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B251">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C251">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c s="1" r="D251">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E251">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c s="1" r="F251">
-        <v>8557.0</v>
+        <v>123.0</v>
       </c>
       <c s="1" r="G251">
         <v>0.0</v>
@@ -70542,19 +70809,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B252">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C252">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c s="1" r="D252">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E252">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c s="1" r="F252">
-        <v>123.0</v>
+        <v>24.0</v>
       </c>
       <c s="1" r="G252">
         <v>0.0</v>
@@ -70817,19 +71084,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B253">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C253">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c s="1" r="D253">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E253">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c s="1" r="F253">
-        <v>24.0</v>
+        <v>2193.0</v>
       </c>
       <c s="1" r="G253">
         <v>0.0</v>
@@ -71092,19 +71359,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B254">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C254">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c s="1" r="D254">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E254">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c s="1" r="F254">
-        <v>2193.0</v>
+        <v>88.0</v>
       </c>
       <c s="1" r="G254">
         <v>0.0</v>
@@ -71367,19 +71634,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B255">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C255">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c s="1" r="D255">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E255">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c s="1" r="F255">
-        <v>88.0</v>
+        <v>442.0</v>
       </c>
       <c s="1" r="G255">
         <v>0.0</v>
@@ -71642,19 +71909,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B256">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C256">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c s="1" r="D256">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E256">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c s="1" r="F256">
-        <v>442.0</v>
+        <v>469.0</v>
       </c>
       <c s="1" r="G256">
         <v>0.0</v>
@@ -71917,19 +72184,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B257">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C257">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c s="1" r="D257">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E257">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c s="1" r="F257">
-        <v>469.0</v>
+        <v>128.0</v>
       </c>
       <c s="1" r="G257">
         <v>0.0</v>
@@ -72192,19 +72459,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B258">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C258">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c s="1" r="D258">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E258">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c s="1" r="F258">
-        <v>128.0</v>
+        <v>3792.0</v>
       </c>
       <c s="1" r="G258">
         <v>0.0</v>
@@ -72459,281 +72726,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CS258">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c s="1" r="A259">
-        <v>2011.0</v>
-      </c>
-      <c s="1" r="B259">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C259">
-        <v>610</v>
-      </c>
-      <c s="1" r="D259">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E259">
-        <v>611</v>
-      </c>
-      <c s="1" r="F259">
-        <v>3792.0</v>
-      </c>
-      <c s="1" r="G259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="U259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="V259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="W259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="X259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Y259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Z259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AA259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AB259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AC259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AD259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AE259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AF259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AG259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AH259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AI259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AJ259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AK259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AL259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AM259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AN259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AO259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AP259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AQ259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AR259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AS259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AT259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AU259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AV259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AX259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AY259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AZ259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BA259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BB259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BC259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BE259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BF259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BG259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BH259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BI259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BJ259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BK259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BL259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BM259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BN259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BO259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BP259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BQ259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BR259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BS259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BT259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BU259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BV259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BW259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BX259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BY259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BZ259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CA259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CB259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CC259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CD259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CE259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CF259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CG259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CH259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CI259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CJ259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CK259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CL259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CM259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CN259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CO259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CP259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CQ259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CR259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CS259">
         <v>0.0</v>
       </c>
     </row>
